--- a/Emails enseignants.xlsx
+++ b/Emails enseignants.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adel\IdeaProjects\Team-33\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,32 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
-  <si>
-    <t>a_belahreche</t>
-  </si>
-  <si>
-    <t>a_bellahreche@esi.dz</t>
-  </si>
-  <si>
-    <t>a_chachoua</t>
-  </si>
-  <si>
-    <t>a_chachoua@esi.dz</t>
-  </si>
-  <si>
-    <t>a_gacem</t>
-  </si>
-  <si>
-    <t>a_gacem@esi.dz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="256">
   <si>
     <t>a_sahraoui</t>
   </si>
   <si>
-    <t>a_sahraoui@esi.dz</t>
-  </si>
-  <si>
     <t>Abdelouahab bencherif</t>
   </si>
   <si>
@@ -119,9 +98,6 @@
     <t>Ens ABANE Mustapha</t>
   </si>
   <si>
-    <t>m_abane@esi.dz</t>
-  </si>
-  <si>
     <t>Ens ABOUD</t>
   </si>
   <si>
@@ -221,9 +197,6 @@
     <t>Ens BAL-BOURAI</t>
   </si>
   <si>
-    <t>s_bourai@esi.dz</t>
-  </si>
-  <si>
     <t>Ens BALLA</t>
   </si>
   <si>
@@ -488,12 +461,6 @@
     <t>s_laoudi@esi.dz</t>
   </si>
   <si>
-    <t>Ens LOUDINI Malik</t>
-  </si>
-  <si>
-    <t>m_loudini@esi.dz</t>
-  </si>
-  <si>
     <t>Ens LOUNES Naima</t>
   </si>
   <si>
@@ -542,12 +509,6 @@
     <t>h_oufaida@esi.dz</t>
   </si>
   <si>
-    <t>Ens OULD KARA Abderrahmane</t>
-  </si>
-  <si>
-    <t>a_ouldkara@esi.dz</t>
-  </si>
-  <si>
     <t>Ens ROUABHIA Ahmed</t>
   </si>
   <si>
@@ -584,12 +545,6 @@
     <t>c_yahiaoui@esi.dz</t>
   </si>
   <si>
-    <t>Ens YAKER Zahida</t>
-  </si>
-  <si>
-    <t>z_yaker@esi.dz</t>
-  </si>
-  <si>
     <t>Ens YESSAD</t>
   </si>
   <si>
@@ -686,18 +641,9 @@
     <t>k_chebieb@esi.dz</t>
   </si>
   <si>
-    <t>koudil mouloud</t>
-  </si>
-  <si>
     <t>m_koudil@esi.dz</t>
   </si>
   <si>
-    <t>l_bouzar</t>
-  </si>
-  <si>
-    <t>l_bouzar@esi.dz</t>
-  </si>
-  <si>
     <t>l_charabi</t>
   </si>
   <si>
@@ -740,18 +686,9 @@
     <t>m_hadim@esi.dz</t>
   </si>
   <si>
-    <t>m_mostefai</t>
-  </si>
-  <si>
     <t>m_mostefai@esi.dz</t>
   </si>
   <si>
-    <t>m_tolba</t>
-  </si>
-  <si>
-    <t>m_tolba@esi.dz</t>
-  </si>
-  <si>
     <t>Mag AYAD Khadidja</t>
   </si>
   <si>
@@ -785,9 +722,6 @@
     <t>n_makhlouf</t>
   </si>
   <si>
-    <t>n_makhlouf@esi.dz</t>
-  </si>
-  <si>
     <t>Nabila BOUSBIA</t>
   </si>
   <si>
@@ -848,12 +782,6 @@
     <t>s_benkrid@esi.dz</t>
   </si>
   <si>
-    <t>Thouraya Bouabana Tebibel</t>
-  </si>
-  <si>
-    <t>t_tebibel@esi.dz</t>
-  </si>
-  <si>
     <t>Vac BELMOULOUD</t>
   </si>
   <si>
@@ -863,25 +791,14 @@
     <t>Vac YEFSAH</t>
   </si>
   <si>
-    <t>r_yefsah@esi.dz</t>
-  </si>
-  <si>
-    <t>w_lalouani</t>
-  </si>
-  <si>
-    <t>w_lalouani@esi.dz</t>
-  </si>
-  <si>
-    <t>y_ait_amrane</t>
-  </si>
-  <si>
-    <t>y_ait_amrane@esi.dz</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,16 +826,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -931,14 +848,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -973,7 +890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1025,7 +942,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1136,21 +1053,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1167,7 +1084,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1219,25 +1136,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,1139 +1162,1935 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="C13"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="C14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="C15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="C17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="C18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="C19"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="C20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="C21"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="C22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="C23"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="C24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C25"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="C26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="C27"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="B31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="B32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="0" t="s">
         <v>65</v>
       </c>
+      <c r="B33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="A35" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="B36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="B37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="0" t="s">
         <v>77</v>
       </c>
+      <c r="B39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="B40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="B41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D41"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="0" t="s">
         <v>83</v>
       </c>
+      <c r="B42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="B43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="B44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="B45" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="B46" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="B47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="B48" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="A49" s="0" t="s">
         <v>97</v>
       </c>
+      <c r="B49" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="0" t="s">
         <v>99</v>
       </c>
+      <c r="B50" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="A51" s="0" t="s">
         <v>101</v>
       </c>
+      <c r="B51" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="B52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="A53" s="0" t="s">
         <v>105</v>
       </c>
+      <c r="B53" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="A54" s="0" t="s">
         <v>107</v>
       </c>
+      <c r="B54" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="B55" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="A56" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="B56" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="B57" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="B58" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="B59" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="B60" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="A61" s="0" t="s">
         <v>121</v>
       </c>
+      <c r="B61" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="A62" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="B62" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="B63" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="A64" s="0" t="s">
         <v>127</v>
       </c>
+      <c r="B64" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="A65" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="B65" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="0" t="s">
         <v>131</v>
       </c>
+      <c r="B66" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="0" t="s">
         <v>133</v>
       </c>
+      <c r="B67" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="A68" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="B68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="A69" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="B69" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="0" t="s">
         <v>139</v>
       </c>
+      <c r="B70" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="0" t="s">
         <v>141</v>
       </c>
+      <c r="B71" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="B72" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="B73" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>146</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="0" t="s">
         <v>147</v>
       </c>
+      <c r="B74" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="0" t="s">
         <v>149</v>
       </c>
+      <c r="B75" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="A76" s="0" t="s">
         <v>151</v>
       </c>
+      <c r="B76" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>152</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="A77" s="0" t="s">
         <v>153</v>
       </c>
+      <c r="B77" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="B78" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="A79" s="0" t="s">
         <v>157</v>
       </c>
+      <c r="B79" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="A80" s="0" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B80" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C80" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B81" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C81" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B82" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C82" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B83" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C83" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="0" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B84" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C84" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="0" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B85" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C85" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B86" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C86" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B87" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C87" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="0" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B88" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C88" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B89" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C89" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="0" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B90" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C90" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="0" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B91" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C91" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="0" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B92" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C92" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="0" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B93" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C93" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="0" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B94" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C94" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="0" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B95" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C95" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="0" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B96" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C96" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="0" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B97" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C97" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="0" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B98" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C98" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="0" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B99" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C99" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="0" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B100" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C100" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="0" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B101" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C101" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="0" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B102" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="C102" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B103" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C103" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B104" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C104" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B105" s="0" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C105" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B106" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C106" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B107" s="0" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C107" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B108" s="0" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C108" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B109" s="0" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C109" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B111" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>230</v>
-      </c>
-      <c r="B116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B116" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B117" s="0" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B118" s="0" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="C118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B119" s="0" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B120" s="0" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="C120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B121" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B122" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B123" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B124" s="0" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B125" s="0" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B126" s="0" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>254</v>
-      </c>
-      <c r="B128" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>258</v>
-      </c>
-      <c r="B130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>260</v>
-      </c>
-      <c r="B131" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>262</v>
-      </c>
-      <c r="B132" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>264</v>
-      </c>
-      <c r="B133" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>276</v>
-      </c>
-      <c r="B139" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>278</v>
-      </c>
-      <c r="B140" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>280</v>
-      </c>
-      <c r="B141" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" t="s">
-        <v>283</v>
-      </c>
+      <c r="C126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="K126"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>